--- a/uploads/members.xlsx
+++ b/uploads/members.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11429" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11430" uniqueCount="1394">
   <si>
     <t>firstname</t>
   </si>
@@ -4196,6 +4196,9 @@
   </si>
   <si>
     <t>memberTypeSavedbclass</t>
+  </si>
+  <si>
+    <t>jobProfessional</t>
   </si>
 </sst>
 </file>
@@ -4557,7 +4560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4565,11 +4568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AT617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G584" sqref="G584"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AS5" sqref="AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4740,10 +4742,12 @@
       <c r="AR1" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="AS1" s="5"/>
+      <c r="AS1" s="5" t="s">
+        <v>1393</v>
+      </c>
       <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:46" hidden="1">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:46" hidden="1">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>940</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="4" spans="1:46" hidden="1">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
         <v>622</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="5" spans="1:46" hidden="1">
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
         <v>652</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="6" spans="1:46" hidden="1">
+    <row r="6" spans="1:46">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="7" spans="1:46" hidden="1">
+    <row r="7" spans="1:46">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="8" spans="1:46" hidden="1">
+    <row r="8" spans="1:46">
       <c r="A8" t="s">
         <v>636</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="9" spans="1:46" hidden="1">
+    <row r="9" spans="1:46">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="10" spans="1:46" hidden="1">
+    <row r="10" spans="1:46">
       <c r="A10" t="s">
         <v>1136</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="11" spans="1:46" hidden="1">
+    <row r="11" spans="1:46">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="12" spans="1:46" hidden="1">
+    <row r="12" spans="1:46">
       <c r="A12" t="s">
         <v>763</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="13" spans="1:46" hidden="1">
+    <row r="13" spans="1:46">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="14" spans="1:46" hidden="1">
+    <row r="14" spans="1:46">
       <c r="A14" t="s">
         <v>278</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="15" spans="1:46" hidden="1">
+    <row r="15" spans="1:46">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="16" spans="1:46" hidden="1">
+    <row r="16" spans="1:46">
       <c r="A16" t="s">
         <v>602</v>
       </c>
@@ -5829,7 +5833,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="17" spans="1:39" hidden="1">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -5901,7 +5905,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="18" spans="1:39" hidden="1">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>537</v>
       </c>
@@ -5967,7 +5971,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="19" spans="1:39" hidden="1">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>283</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="20" spans="1:39" hidden="1">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>439</v>
       </c>
@@ -6111,7 +6115,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="21" spans="1:39" hidden="1">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6183,7 +6187,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="22" spans="1:39" hidden="1">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -6255,7 +6259,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="23" spans="1:39" hidden="1">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
         <v>634</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="24" spans="1:39" hidden="1">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
         <v>718</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="25" spans="1:39" hidden="1">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
         <v>1111</v>
       </c>
@@ -6459,7 +6463,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="26" spans="1:39" hidden="1">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="27" spans="1:39" hidden="1">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
         <v>281</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="28" spans="1:39" hidden="1">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
         <v>364</v>
       </c>
@@ -6669,7 +6673,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="29" spans="1:39" hidden="1">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
         <v>238</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="30" spans="1:39" hidden="1">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
         <v>400</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="31" spans="1:39" hidden="1">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
         <v>305</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="32" spans="1:39" hidden="1">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="33" spans="1:39" hidden="1">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
         <v>525</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="34" spans="1:39" hidden="1">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
         <v>796</v>
       </c>
@@ -7101,7 +7105,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="35" spans="1:39" hidden="1">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
         <v>434</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="36" spans="1:39" hidden="1">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
         <v>987</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="37" spans="1:39" hidden="1">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
         <v>381</v>
       </c>
@@ -7317,7 +7321,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="38" spans="1:39" hidden="1">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
         <v>571</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="39" spans="1:39" hidden="1">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
         <v>280</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="40" spans="1:39" hidden="1">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
         <v>504</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="41" spans="1:39" hidden="1">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
         <v>305</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="42" spans="1:39" hidden="1">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
         <v>364</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="43" spans="1:39" hidden="1">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
         <v>492</v>
       </c>
@@ -7743,7 +7747,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="44" spans="1:39" hidden="1">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="45" spans="1:39" hidden="1">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
         <v>579</v>
       </c>
@@ -7887,7 +7891,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="46" spans="1:39" hidden="1">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -7959,7 +7963,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="47" spans="1:39" hidden="1">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -8031,7 +8035,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="48" spans="1:39" hidden="1">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
         <v>1204</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="49" spans="1:39" hidden="1">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
         <v>727</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="50" spans="1:39" hidden="1">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -8241,7 +8245,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="51" spans="1:39" hidden="1">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
         <v>360</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="52" spans="1:39" hidden="1">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="53" spans="1:39" hidden="1">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
         <v>238</v>
       </c>
@@ -8451,7 +8455,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="54" spans="1:39" hidden="1">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -8523,7 +8527,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="55" spans="1:39" hidden="1">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="56" spans="1:39" hidden="1">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -8655,7 +8659,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="57" spans="1:39" hidden="1">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="58" spans="1:39" hidden="1">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
         <v>434</v>
       </c>
@@ -8799,7 +8803,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="59" spans="1:39" hidden="1">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="60" spans="1:39" hidden="1">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -8943,7 +8947,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="61" spans="1:39" hidden="1">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
         <v>585</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="62" spans="1:39" hidden="1">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
         <v>721</v>
       </c>
@@ -9087,7 +9091,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="63" spans="1:39" hidden="1">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -9159,7 +9163,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="64" spans="1:39" hidden="1">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
         <v>259</v>
       </c>
@@ -9231,7 +9235,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="65" spans="1:39" hidden="1">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
         <v>566</v>
       </c>
@@ -9303,7 +9307,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="66" spans="1:39" hidden="1">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -9375,7 +9379,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="67" spans="1:39" hidden="1">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
         <v>439</v>
       </c>
@@ -9447,7 +9451,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="68" spans="1:39" hidden="1">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
         <v>289</v>
       </c>
@@ -9519,7 +9523,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="69" spans="1:39" hidden="1">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -9591,7 +9595,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="70" spans="1:39" hidden="1">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -9669,7 +9673,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="71" spans="1:39" hidden="1">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
         <v>487</v>
       </c>
@@ -9741,7 +9745,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="72" spans="1:39" hidden="1">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -9807,7 +9811,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="73" spans="1:39" hidden="1">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -9873,7 +9877,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="74" spans="1:39" hidden="1">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
         <v>329</v>
       </c>
@@ -9945,7 +9949,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="75" spans="1:39" hidden="1">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
         <v>467</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="76" spans="1:39" hidden="1">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
         <v>194</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="77" spans="1:39" hidden="1">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
         <v>368</v>
       </c>
@@ -10155,7 +10159,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="78" spans="1:39" hidden="1">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
         <v>539</v>
       </c>
@@ -10227,7 +10231,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="79" spans="1:39" hidden="1">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
         <v>806</v>
       </c>
@@ -10299,7 +10303,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="80" spans="1:39" hidden="1">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
         <v>333</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="81" spans="1:39" hidden="1">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
         <v>1254</v>
       </c>
@@ -10443,7 +10447,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="82" spans="1:39" hidden="1">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
         <v>1300</v>
       </c>
@@ -10515,7 +10519,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="83" spans="1:39" hidden="1">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
         <v>1236</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="84" spans="1:39" hidden="1">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
         <v>416</v>
       </c>
@@ -10659,7 +10663,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="85" spans="1:39" hidden="1">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
         <v>1155</v>
       </c>
@@ -10731,7 +10735,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="86" spans="1:39" hidden="1">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
         <v>591</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="87" spans="1:39" hidden="1">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
         <v>298</v>
       </c>
@@ -10875,7 +10879,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="88" spans="1:39" hidden="1">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
         <v>297</v>
       </c>
@@ -10947,7 +10951,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="89" spans="1:39" hidden="1">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
         <v>737</v>
       </c>
@@ -11019,7 +11023,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="90" spans="1:39" hidden="1">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
         <v>802</v>
       </c>
@@ -11091,7 +11095,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="91" spans="1:39" hidden="1">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -11163,7 +11167,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="92" spans="1:39" hidden="1">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="93" spans="1:39" hidden="1">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
         <v>206</v>
       </c>
@@ -11307,7 +11311,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="94" spans="1:39" hidden="1">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
         <v>1075</v>
       </c>
@@ -11379,7 +11383,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="95" spans="1:39" hidden="1">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
         <v>182</v>
       </c>
@@ -11451,7 +11455,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="96" spans="1:39" hidden="1">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -11523,7 +11527,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="97" spans="1:39" hidden="1">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -11589,7 +11593,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="98" spans="1:39" hidden="1">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
         <v>1007</v>
       </c>
@@ -11661,7 +11665,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="99" spans="1:39" hidden="1">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -11733,7 +11737,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="100" spans="1:39" hidden="1">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
         <v>1043</v>
       </c>
@@ -11799,7 +11803,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="101" spans="1:39" hidden="1">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
         <v>364</v>
       </c>
@@ -11871,7 +11875,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="102" spans="1:39" hidden="1">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
         <v>612</v>
       </c>
@@ -11943,7 +11947,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="103" spans="1:39" hidden="1">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
         <v>871</v>
       </c>
@@ -12015,7 +12019,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="104" spans="1:39" hidden="1">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
         <v>238</v>
       </c>
@@ -12087,7 +12091,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="105" spans="1:39" hidden="1">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
         <v>739</v>
       </c>
@@ -12159,7 +12163,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="106" spans="1:39" hidden="1">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
         <v>369</v>
       </c>
@@ -12225,7 +12229,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="107" spans="1:39" hidden="1">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
         <v>232</v>
       </c>
@@ -12297,7 +12301,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="108" spans="1:39" hidden="1">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
         <v>504</v>
       </c>
@@ -12369,7 +12373,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="109" spans="1:39" hidden="1">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
         <v>1256</v>
       </c>
@@ -12441,7 +12445,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="110" spans="1:39" hidden="1">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
         <v>1267</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="111" spans="1:39" hidden="1">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
         <v>1094</v>
       </c>
@@ -12585,7 +12589,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="112" spans="1:39" hidden="1">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
         <v>823</v>
       </c>
@@ -12657,7 +12661,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="113" spans="1:39" hidden="1">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -12729,7 +12733,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="114" spans="1:39" hidden="1">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -12801,7 +12805,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="115" spans="1:39" hidden="1">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -12873,7 +12877,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="116" spans="1:39" hidden="1">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
         <v>395</v>
       </c>
@@ -12945,7 +12949,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="117" spans="1:39" hidden="1">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
         <v>210</v>
       </c>
@@ -13011,7 +13015,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="118" spans="1:39" hidden="1">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -13083,7 +13087,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="119" spans="1:39" hidden="1">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
         <v>659</v>
       </c>
@@ -13155,7 +13159,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="120" spans="1:39" hidden="1">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
         <v>1098</v>
       </c>
@@ -13227,7 +13231,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="121" spans="1:39" hidden="1">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
         <v>357</v>
       </c>
@@ -13299,7 +13303,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="122" spans="1:39" hidden="1">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
         <v>581</v>
       </c>
@@ -13365,7 +13369,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="123" spans="1:39" hidden="1">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
         <v>473</v>
       </c>
@@ -13437,7 +13441,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="124" spans="1:39" hidden="1">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
         <v>439</v>
       </c>
@@ -13509,7 +13513,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="125" spans="1:39" hidden="1">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
         <v>569</v>
       </c>
@@ -13575,7 +13579,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="126" spans="1:39" hidden="1">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
         <v>609</v>
       </c>
@@ -13647,7 +13651,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="127" spans="1:39" hidden="1">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
         <v>297</v>
       </c>
@@ -13719,7 +13723,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="128" spans="1:39" hidden="1">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
         <v>889</v>
       </c>
@@ -13791,7 +13795,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="129" spans="1:39" hidden="1">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
         <v>1036</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="130" spans="1:39" hidden="1">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
         <v>1047</v>
       </c>
@@ -13935,7 +13939,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="131" spans="1:39" hidden="1">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
         <v>454</v>
       </c>
@@ -14007,7 +14011,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="132" spans="1:39" hidden="1">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -14079,7 +14083,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="133" spans="1:39" hidden="1">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
         <v>710</v>
       </c>
@@ -14151,7 +14155,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="134" spans="1:39" hidden="1">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
         <v>130</v>
       </c>
@@ -14217,7 +14221,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="135" spans="1:39" hidden="1">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -14283,7 +14287,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="136" spans="1:39" hidden="1">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
         <v>816</v>
       </c>
@@ -14355,7 +14359,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="137" spans="1:39" hidden="1">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
         <v>838</v>
       </c>
@@ -14427,7 +14431,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="138" spans="1:39" hidden="1">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
         <v>579</v>
       </c>
@@ -14493,7 +14497,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="139" spans="1:39" hidden="1">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
         <v>421</v>
       </c>
@@ -14565,7 +14569,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="140" spans="1:39" hidden="1">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
         <v>1219</v>
       </c>
@@ -14637,7 +14641,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="141" spans="1:39" hidden="1">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
         <v>1265</v>
       </c>
@@ -14709,7 +14713,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="142" spans="1:39" hidden="1">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
         <v>1130</v>
       </c>
@@ -14781,7 +14785,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="143" spans="1:39" hidden="1">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
         <v>662</v>
       </c>
@@ -14853,7 +14857,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="144" spans="1:39" hidden="1">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
         <v>1079</v>
       </c>
@@ -14919,7 +14923,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="145" spans="1:39" hidden="1">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
         <v>73</v>
       </c>
@@ -14991,7 +14995,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="146" spans="1:39" hidden="1">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -15057,7 +15061,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="147" spans="1:39" hidden="1">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
         <v>358</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="148" spans="1:39" hidden="1">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
         <v>297</v>
       </c>
@@ -15195,7 +15199,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="149" spans="1:39" hidden="1">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
         <v>180</v>
       </c>
@@ -15267,7 +15271,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="150" spans="1:39" hidden="1">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
         <v>179</v>
       </c>
@@ -15339,7 +15343,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="151" spans="1:39" hidden="1">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
         <v>342</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="152" spans="1:39" hidden="1">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
         <v>333</v>
       </c>
@@ -15477,7 +15481,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="153" spans="1:39" hidden="1">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
         <v>312</v>
       </c>
@@ -15549,7 +15553,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="154" spans="1:39" hidden="1">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
         <v>918</v>
       </c>
@@ -15621,7 +15625,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="155" spans="1:39" hidden="1">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
         <v>311</v>
       </c>
@@ -15693,7 +15697,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="156" spans="1:39" hidden="1">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
         <v>89</v>
       </c>
@@ -15765,7 +15769,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="157" spans="1:39" hidden="1">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -15837,7 +15841,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="158" spans="1:39" hidden="1">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
         <v>408</v>
       </c>
@@ -15909,7 +15913,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="159" spans="1:39" hidden="1">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
         <v>847</v>
       </c>
@@ -15981,7 +15985,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="160" spans="1:39" hidden="1">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
         <v>879</v>
       </c>
@@ -16053,7 +16057,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="161" spans="1:39" hidden="1">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
         <v>256</v>
       </c>
@@ -16125,7 +16129,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="162" spans="1:39" hidden="1">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
         <v>345</v>
       </c>
@@ -16197,7 +16201,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="163" spans="1:39" hidden="1">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -16263,7 +16267,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="164" spans="1:39" hidden="1">
+    <row r="164" spans="1:39">
       <c r="A164" t="s">
         <v>1175</v>
       </c>
@@ -16335,7 +16339,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="165" spans="1:39" hidden="1">
+    <row r="165" spans="1:39">
       <c r="A165" t="s">
         <v>122</v>
       </c>
@@ -16407,7 +16411,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="166" spans="1:39" hidden="1">
+    <row r="166" spans="1:39">
       <c r="A166" t="s">
         <v>364</v>
       </c>
@@ -16473,7 +16477,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="167" spans="1:39" hidden="1">
+    <row r="167" spans="1:39">
       <c r="A167" t="s">
         <v>36</v>
       </c>
@@ -16545,7 +16549,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="168" spans="1:39" hidden="1">
+    <row r="168" spans="1:39">
       <c r="A168" t="s">
         <v>767</v>
       </c>
@@ -16617,7 +16621,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="169" spans="1:39" hidden="1">
+    <row r="169" spans="1:39">
       <c r="A169" t="s">
         <v>49</v>
       </c>
@@ -16689,7 +16693,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="170" spans="1:39" hidden="1">
+    <row r="170" spans="1:39">
       <c r="A170" t="s">
         <v>130</v>
       </c>
@@ -16761,7 +16765,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="171" spans="1:39" hidden="1">
+    <row r="171" spans="1:39">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -16833,7 +16837,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="172" spans="1:39" hidden="1">
+    <row r="172" spans="1:39">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -16905,7 +16909,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="173" spans="1:39" hidden="1">
+    <row r="173" spans="1:39">
       <c r="A173" t="s">
         <v>732</v>
       </c>
@@ -16971,7 +16975,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="174" spans="1:39" hidden="1">
+    <row r="174" spans="1:39">
       <c r="A174" t="s">
         <v>704</v>
       </c>
@@ -17043,7 +17047,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="175" spans="1:39" hidden="1">
+    <row r="175" spans="1:39">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -17115,7 +17119,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="176" spans="1:39" hidden="1">
+    <row r="176" spans="1:39">
       <c r="A176" t="s">
         <v>514</v>
       </c>
@@ -17187,7 +17191,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="177" spans="1:39" hidden="1">
+    <row r="177" spans="1:39">
       <c r="A177" t="s">
         <v>817</v>
       </c>
@@ -17259,7 +17263,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="178" spans="1:39" hidden="1">
+    <row r="178" spans="1:39">
       <c r="A178" t="s">
         <v>329</v>
       </c>
@@ -17325,7 +17329,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="179" spans="1:39" hidden="1">
+    <row r="179" spans="1:39">
       <c r="A179" t="s">
         <v>787</v>
       </c>
@@ -17397,7 +17401,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="180" spans="1:39" hidden="1">
+    <row r="180" spans="1:39">
       <c r="A180" t="s">
         <v>977</v>
       </c>
@@ -17469,7 +17473,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="181" spans="1:39" hidden="1">
+    <row r="181" spans="1:39">
       <c r="A181" t="s">
         <v>1055</v>
       </c>
@@ -17541,7 +17545,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="182" spans="1:39" hidden="1">
+    <row r="182" spans="1:39">
       <c r="A182" t="s">
         <v>1139</v>
       </c>
@@ -17607,7 +17611,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="183" spans="1:39" hidden="1">
+    <row r="183" spans="1:39">
       <c r="A183" t="s">
         <v>84</v>
       </c>
@@ -17679,7 +17683,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="184" spans="1:39" hidden="1">
+    <row r="184" spans="1:39">
       <c r="A184" t="s">
         <v>987</v>
       </c>
@@ -17751,7 +17755,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="185" spans="1:39" hidden="1">
+    <row r="185" spans="1:39">
       <c r="A185" t="s">
         <v>755</v>
       </c>
@@ -17823,7 +17827,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="186" spans="1:39" hidden="1">
+    <row r="186" spans="1:39">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -17895,7 +17899,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="187" spans="1:39" hidden="1">
+    <row r="187" spans="1:39">
       <c r="A187" t="s">
         <v>1043</v>
       </c>
@@ -17967,7 +17971,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="188" spans="1:39" hidden="1">
+    <row r="188" spans="1:39">
       <c r="A188" t="s">
         <v>73</v>
       </c>
@@ -18039,7 +18043,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="189" spans="1:39" hidden="1">
+    <row r="189" spans="1:39">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -18111,7 +18115,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="190" spans="1:39" hidden="1">
+    <row r="190" spans="1:39">
       <c r="A190" t="s">
         <v>422</v>
       </c>
@@ -18183,7 +18187,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="191" spans="1:39" hidden="1">
+    <row r="191" spans="1:39">
       <c r="A191" t="s">
         <v>616</v>
       </c>
@@ -18255,7 +18259,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="192" spans="1:39" hidden="1">
+    <row r="192" spans="1:39">
       <c r="A192" t="s">
         <v>55</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="193" spans="1:39" hidden="1">
+    <row r="193" spans="1:39">
       <c r="A193" t="s">
         <v>591</v>
       </c>
@@ -18387,7 +18391,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="194" spans="1:39" hidden="1">
+    <row r="194" spans="1:39">
       <c r="A194" t="s">
         <v>31</v>
       </c>
@@ -18459,7 +18463,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="195" spans="1:39" hidden="1">
+    <row r="195" spans="1:39">
       <c r="A195" t="s">
         <v>202</v>
       </c>
@@ -18531,7 +18535,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="196" spans="1:39" hidden="1">
+    <row r="196" spans="1:39">
       <c r="A196" t="s">
         <v>385</v>
       </c>
@@ -18603,7 +18607,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="197" spans="1:39" hidden="1">
+    <row r="197" spans="1:39">
       <c r="A197" t="s">
         <v>579</v>
       </c>
@@ -18669,7 +18673,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="198" spans="1:39" hidden="1">
+    <row r="198" spans="1:39">
       <c r="A198" t="s">
         <v>191</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="199" spans="1:39" hidden="1">
+    <row r="199" spans="1:39">
       <c r="A199" t="s">
         <v>125</v>
       </c>
@@ -18813,7 +18817,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="200" spans="1:39" hidden="1">
+    <row r="200" spans="1:39">
       <c r="A200" t="s">
         <v>47</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="201" spans="1:39" hidden="1">
+    <row r="201" spans="1:39">
       <c r="A201" t="s">
         <v>278</v>
       </c>
@@ -18945,7 +18949,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="202" spans="1:39" hidden="1">
+    <row r="202" spans="1:39">
       <c r="A202" t="s">
         <v>358</v>
       </c>
@@ -19017,7 +19021,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="203" spans="1:39" hidden="1">
+    <row r="203" spans="1:39">
       <c r="A203" t="s">
         <v>96</v>
       </c>
@@ -19089,7 +19093,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="204" spans="1:39" hidden="1">
+    <row r="204" spans="1:39">
       <c r="A204" t="s">
         <v>1055</v>
       </c>
@@ -19161,7 +19165,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="205" spans="1:39" hidden="1">
+    <row r="205" spans="1:39">
       <c r="A205" t="s">
         <v>498</v>
       </c>
@@ -19233,7 +19237,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="206" spans="1:39" hidden="1">
+    <row r="206" spans="1:39">
       <c r="A206" t="s">
         <v>555</v>
       </c>
@@ -19305,7 +19309,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="207" spans="1:39" hidden="1">
+    <row r="207" spans="1:39">
       <c r="A207" t="s">
         <v>312</v>
       </c>
@@ -19377,7 +19381,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="208" spans="1:39" hidden="1">
+    <row r="208" spans="1:39">
       <c r="A208" t="s">
         <v>729</v>
       </c>
@@ -19449,7 +19453,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="209" spans="1:39" hidden="1">
+    <row r="209" spans="1:39">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -19521,7 +19525,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="210" spans="1:39" hidden="1">
+    <row r="210" spans="1:39">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -19593,7 +19597,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="211" spans="1:39" hidden="1">
+    <row r="211" spans="1:39">
       <c r="A211" t="s">
         <v>675</v>
       </c>
@@ -19665,7 +19669,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="212" spans="1:39" hidden="1">
+    <row r="212" spans="1:39">
       <c r="A212" t="s">
         <v>321</v>
       </c>
@@ -19737,7 +19741,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="213" spans="1:39" hidden="1">
+    <row r="213" spans="1:39">
       <c r="A213" t="s">
         <v>386</v>
       </c>
@@ -19806,7 +19810,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="214" spans="1:39" hidden="1">
+    <row r="214" spans="1:39">
       <c r="A214" t="s">
         <v>478</v>
       </c>
@@ -19878,7 +19882,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="215" spans="1:39" hidden="1">
+    <row r="215" spans="1:39">
       <c r="A215" t="s">
         <v>633</v>
       </c>
@@ -19947,7 +19951,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="216" spans="1:39" hidden="1">
+    <row r="216" spans="1:39">
       <c r="A216" t="s">
         <v>253</v>
       </c>
@@ -20016,7 +20020,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="217" spans="1:39" hidden="1">
+    <row r="217" spans="1:39">
       <c r="A217" t="s">
         <v>342</v>
       </c>
@@ -20088,7 +20092,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="218" spans="1:39" hidden="1">
+    <row r="218" spans="1:39">
       <c r="A218" t="s">
         <v>1212</v>
       </c>
@@ -20160,7 +20164,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="219" spans="1:39" hidden="1">
+    <row r="219" spans="1:39">
       <c r="A219" t="s">
         <v>453</v>
       </c>
@@ -20232,7 +20236,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="220" spans="1:39" hidden="1">
+    <row r="220" spans="1:39">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -20304,7 +20308,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="221" spans="1:39" hidden="1">
+    <row r="221" spans="1:39">
       <c r="A221" t="s">
         <v>154</v>
       </c>
@@ -20376,7 +20380,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="222" spans="1:39" hidden="1">
+    <row r="222" spans="1:39">
       <c r="A222" t="s">
         <v>725</v>
       </c>
@@ -20448,7 +20452,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="223" spans="1:39" hidden="1">
+    <row r="223" spans="1:39">
       <c r="A223" t="s">
         <v>544</v>
       </c>
@@ -20520,7 +20524,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="224" spans="1:39" hidden="1">
+    <row r="224" spans="1:39">
       <c r="A224" t="s">
         <v>1018</v>
       </c>
@@ -20592,7 +20596,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="225" spans="1:39" hidden="1">
+    <row r="225" spans="1:39">
       <c r="A225" t="s">
         <v>1067</v>
       </c>
@@ -20664,7 +20668,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="226" spans="1:39" hidden="1">
+    <row r="226" spans="1:39">
       <c r="A226" t="s">
         <v>927</v>
       </c>
@@ -20736,7 +20740,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="227" spans="1:39" hidden="1">
+    <row r="227" spans="1:39">
       <c r="A227" t="s">
         <v>73</v>
       </c>
@@ -20808,7 +20812,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="228" spans="1:39" hidden="1">
+    <row r="228" spans="1:39">
       <c r="A228" t="s">
         <v>985</v>
       </c>
@@ -20874,7 +20878,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="229" spans="1:39" hidden="1">
+    <row r="229" spans="1:39">
       <c r="A229" t="s">
         <v>1139</v>
       </c>
@@ -20946,7 +20950,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="230" spans="1:39" hidden="1">
+    <row r="230" spans="1:39">
       <c r="A230" t="s">
         <v>107</v>
       </c>
@@ -21012,7 +21016,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="231" spans="1:39" hidden="1">
+    <row r="231" spans="1:39">
       <c r="A231" t="s">
         <v>504</v>
       </c>
@@ -21078,7 +21082,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="232" spans="1:39" hidden="1">
+    <row r="232" spans="1:39">
       <c r="A232" t="s">
         <v>107</v>
       </c>
@@ -21144,7 +21148,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="233" spans="1:39" hidden="1">
+    <row r="233" spans="1:39">
       <c r="A233" t="s">
         <v>280</v>
       </c>
@@ -21216,7 +21220,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="234" spans="1:39" hidden="1">
+    <row r="234" spans="1:39">
       <c r="A234" t="s">
         <v>41</v>
       </c>
@@ -21288,7 +21292,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="235" spans="1:39" hidden="1">
+    <row r="235" spans="1:39">
       <c r="A235" t="s">
         <v>905</v>
       </c>
@@ -21360,7 +21364,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="236" spans="1:39" hidden="1">
+    <row r="236" spans="1:39">
       <c r="A236" t="s">
         <v>1072</v>
       </c>
@@ -21432,7 +21436,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="237" spans="1:39" hidden="1">
+    <row r="237" spans="1:39">
       <c r="A237" t="s">
         <v>36</v>
       </c>
@@ -21498,7 +21502,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="238" spans="1:39" hidden="1">
+    <row r="238" spans="1:39">
       <c r="A238" t="s">
         <v>1188</v>
       </c>
@@ -21570,7 +21574,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="239" spans="1:39" hidden="1">
+    <row r="239" spans="1:39">
       <c r="A239" t="s">
         <v>115</v>
       </c>
@@ -21642,7 +21646,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="240" spans="1:39" hidden="1">
+    <row r="240" spans="1:39">
       <c r="A240" t="s">
         <v>101</v>
       </c>
@@ -21714,7 +21718,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="241" spans="1:39" hidden="1">
+    <row r="241" spans="1:39">
       <c r="A241" t="s">
         <v>73</v>
       </c>
@@ -21786,7 +21790,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="242" spans="1:39" hidden="1">
+    <row r="242" spans="1:39">
       <c r="A242" t="s">
         <v>158</v>
       </c>
@@ -21858,7 +21862,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="243" spans="1:39" hidden="1">
+    <row r="243" spans="1:39">
       <c r="A243" t="s">
         <v>732</v>
       </c>
@@ -21930,7 +21934,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="244" spans="1:39" hidden="1">
+    <row r="244" spans="1:39">
       <c r="A244" t="s">
         <v>492</v>
       </c>
@@ -22002,7 +22006,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="245" spans="1:39" hidden="1">
+    <row r="245" spans="1:39">
       <c r="A245" t="s">
         <v>194</v>
       </c>
@@ -22074,7 +22078,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="246" spans="1:39" hidden="1">
+    <row r="246" spans="1:39">
       <c r="A246" t="s">
         <v>107</v>
       </c>
@@ -22146,7 +22150,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="247" spans="1:39" hidden="1">
+    <row r="247" spans="1:39">
       <c r="A247" t="s">
         <v>111</v>
       </c>
@@ -22218,7 +22222,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="248" spans="1:39" hidden="1">
+    <row r="248" spans="1:39">
       <c r="A248" t="s">
         <v>620</v>
       </c>
@@ -22290,7 +22294,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="249" spans="1:39" hidden="1">
+    <row r="249" spans="1:39">
       <c r="A249" t="s">
         <v>416</v>
       </c>
@@ -22356,7 +22360,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="250" spans="1:39" hidden="1">
+    <row r="250" spans="1:39">
       <c r="A250" t="s">
         <v>298</v>
       </c>
@@ -22428,7 +22432,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="251" spans="1:39" hidden="1">
+    <row r="251" spans="1:39">
       <c r="A251" t="s">
         <v>599</v>
       </c>
@@ -22497,7 +22501,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="252" spans="1:39" hidden="1">
+    <row r="252" spans="1:39">
       <c r="A252" t="s">
         <v>814</v>
       </c>
@@ -22569,7 +22573,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="253" spans="1:39" hidden="1">
+    <row r="253" spans="1:39">
       <c r="A253" t="s">
         <v>115</v>
       </c>
@@ -22641,7 +22645,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="254" spans="1:39" hidden="1">
+    <row r="254" spans="1:39">
       <c r="A254" t="s">
         <v>813</v>
       </c>
@@ -22713,7 +22717,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="255" spans="1:39" hidden="1">
+    <row r="255" spans="1:39">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -22785,7 +22789,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="256" spans="1:39" hidden="1">
+    <row r="256" spans="1:39">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -22851,7 +22855,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="257" spans="1:39" hidden="1">
+    <row r="257" spans="1:39">
       <c r="A257" t="s">
         <v>548</v>
       </c>
@@ -22917,7 +22921,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="258" spans="1:39" hidden="1">
+    <row r="258" spans="1:39">
       <c r="A258" t="s">
         <v>144</v>
       </c>
@@ -22983,7 +22987,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="259" spans="1:39" hidden="1">
+    <row r="259" spans="1:39">
       <c r="A259" t="s">
         <v>334</v>
       </c>
@@ -23049,7 +23053,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="260" spans="1:39" hidden="1">
+    <row r="260" spans="1:39">
       <c r="A260" t="s">
         <v>928</v>
       </c>
@@ -23121,7 +23125,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="261" spans="1:39" hidden="1">
+    <row r="261" spans="1:39">
       <c r="A261" t="s">
         <v>1107</v>
       </c>
@@ -23193,7 +23197,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="262" spans="1:39" hidden="1">
+    <row r="262" spans="1:39">
       <c r="A262" t="s">
         <v>927</v>
       </c>
@@ -23265,7 +23269,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="263" spans="1:39" hidden="1">
+    <row r="263" spans="1:39">
       <c r="A263" t="s">
         <v>400</v>
       </c>
@@ -23331,7 +23335,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="264" spans="1:39" hidden="1">
+    <row r="264" spans="1:39">
       <c r="A264" t="s">
         <v>853</v>
       </c>
@@ -23403,7 +23407,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="265" spans="1:39" hidden="1">
+    <row r="265" spans="1:39">
       <c r="A265" t="s">
         <v>504</v>
       </c>
@@ -23469,7 +23473,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="266" spans="1:39" hidden="1">
+    <row r="266" spans="1:39">
       <c r="A266" t="s">
         <v>242</v>
       </c>
@@ -23535,7 +23539,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="267" spans="1:39" hidden="1">
+    <row r="267" spans="1:39">
       <c r="A267" t="s">
         <v>179</v>
       </c>
@@ -23607,7 +23611,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="268" spans="1:39" hidden="1">
+    <row r="268" spans="1:39">
       <c r="A268" t="s">
         <v>385</v>
       </c>
@@ -23673,7 +23677,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="269" spans="1:39" hidden="1">
+    <row r="269" spans="1:39">
       <c r="A269" t="s">
         <v>144</v>
       </c>
@@ -23745,7 +23749,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="270" spans="1:39" hidden="1">
+    <row r="270" spans="1:39">
       <c r="A270" t="s">
         <v>202</v>
       </c>
@@ -23811,7 +23815,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="271" spans="1:39" hidden="1">
+    <row r="271" spans="1:39">
       <c r="A271" t="s">
         <v>182</v>
       </c>
@@ -23883,7 +23887,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="272" spans="1:39" hidden="1">
+    <row r="272" spans="1:39">
       <c r="A272" t="s">
         <v>267</v>
       </c>
@@ -23949,7 +23953,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="273" spans="1:39" hidden="1">
+    <row r="273" spans="1:39">
       <c r="A273" t="s">
         <v>983</v>
       </c>
@@ -24021,7 +24025,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="274" spans="1:39" hidden="1">
+    <row r="274" spans="1:39">
       <c r="A274" t="s">
         <v>847</v>
       </c>
@@ -24093,7 +24097,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="275" spans="1:39" hidden="1">
+    <row r="275" spans="1:39">
       <c r="A275" t="s">
         <v>982</v>
       </c>
@@ -24165,7 +24169,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="276" spans="1:39" hidden="1">
+    <row r="276" spans="1:39">
       <c r="A276" t="s">
         <v>374</v>
       </c>
@@ -24237,7 +24241,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="277" spans="1:39" hidden="1">
+    <row r="277" spans="1:39">
       <c r="A277" t="s">
         <v>962</v>
       </c>
@@ -24303,7 +24307,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="278" spans="1:39" hidden="1">
+    <row r="278" spans="1:39">
       <c r="A278" t="s">
         <v>36</v>
       </c>
@@ -24375,7 +24379,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="279" spans="1:39" hidden="1">
+    <row r="279" spans="1:39">
       <c r="A279" t="s">
         <v>465</v>
       </c>
@@ -24441,7 +24445,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="280" spans="1:39" hidden="1">
+    <row r="280" spans="1:39">
       <c r="A280" t="s">
         <v>337</v>
       </c>
@@ -24513,7 +24517,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="281" spans="1:39" hidden="1">
+    <row r="281" spans="1:39">
       <c r="A281" t="s">
         <v>403</v>
       </c>
@@ -24585,7 +24589,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="282" spans="1:39" hidden="1">
+    <row r="282" spans="1:39">
       <c r="A282" t="s">
         <v>379</v>
       </c>
@@ -24657,7 +24661,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="283" spans="1:39" hidden="1">
+    <row r="283" spans="1:39">
       <c r="A283" t="s">
         <v>165</v>
       </c>
@@ -24729,7 +24733,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="284" spans="1:39" hidden="1">
+    <row r="284" spans="1:39">
       <c r="A284" t="s">
         <v>163</v>
       </c>
@@ -24795,7 +24799,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="285" spans="1:39" hidden="1">
+    <row r="285" spans="1:39">
       <c r="A285" t="s">
         <v>484</v>
       </c>
@@ -24867,7 +24871,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="286" spans="1:39" hidden="1">
+    <row r="286" spans="1:39">
       <c r="A286" t="s">
         <v>217</v>
       </c>
@@ -24933,7 +24937,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="287" spans="1:39" hidden="1">
+    <row r="287" spans="1:39">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -25005,7 +25009,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="288" spans="1:39" hidden="1">
+    <row r="288" spans="1:39">
       <c r="A288" t="s">
         <v>301</v>
       </c>
@@ -25071,7 +25075,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="289" spans="1:39" hidden="1">
+    <row r="289" spans="1:39">
       <c r="A289" t="s">
         <v>1195</v>
       </c>
@@ -25137,7 +25141,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="290" spans="1:39" hidden="1">
+    <row r="290" spans="1:39">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -25209,7 +25213,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="291" spans="1:39" hidden="1">
+    <row r="291" spans="1:39">
       <c r="A291" t="s">
         <v>774</v>
       </c>
@@ -25281,7 +25285,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="292" spans="1:39" hidden="1">
+    <row r="292" spans="1:39">
       <c r="A292" t="s">
         <v>916</v>
       </c>
@@ -25353,7 +25357,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="293" spans="1:39" hidden="1">
+    <row r="293" spans="1:39">
       <c r="A293" t="s">
         <v>1049</v>
       </c>
@@ -25425,7 +25429,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="294" spans="1:39" hidden="1">
+    <row r="294" spans="1:39">
       <c r="A294" t="s">
         <v>915</v>
       </c>
@@ -25497,7 +25501,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="295" spans="1:39" hidden="1">
+    <row r="295" spans="1:39">
       <c r="A295" t="s">
         <v>89</v>
       </c>
@@ -25569,7 +25573,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="296" spans="1:39" hidden="1">
+    <row r="296" spans="1:39">
       <c r="A296" t="s">
         <v>122</v>
       </c>
@@ -25641,7 +25645,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="297" spans="1:39" hidden="1">
+    <row r="297" spans="1:39">
       <c r="A297" t="s">
         <v>94</v>
       </c>
@@ -25713,7 +25717,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="298" spans="1:39" hidden="1">
+    <row r="298" spans="1:39">
       <c r="A298" t="s">
         <v>92</v>
       </c>
@@ -25779,7 +25783,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="299" spans="1:39" hidden="1">
+    <row r="299" spans="1:39">
       <c r="A299" t="s">
         <v>55</v>
       </c>
@@ -25851,7 +25855,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="300" spans="1:39" hidden="1">
+    <row r="300" spans="1:39">
       <c r="A300" t="s">
         <v>626</v>
       </c>
@@ -25923,7 +25927,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="301" spans="1:39" hidden="1">
+    <row r="301" spans="1:39">
       <c r="A301" t="s">
         <v>504</v>
       </c>
@@ -25995,7 +25999,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="302" spans="1:39" hidden="1">
+    <row r="302" spans="1:39">
       <c r="A302" t="s">
         <v>729</v>
       </c>
@@ -26067,7 +26071,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="303" spans="1:39" hidden="1">
+    <row r="303" spans="1:39">
       <c r="A303" t="s">
         <v>354</v>
       </c>
@@ -26139,7 +26143,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="304" spans="1:39" hidden="1">
+    <row r="304" spans="1:39">
       <c r="A304" t="s">
         <v>866</v>
       </c>
@@ -26205,7 +26209,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="305" spans="1:39" hidden="1">
+    <row r="305" spans="1:39">
       <c r="A305" t="s">
         <v>218</v>
       </c>
@@ -26277,7 +26281,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="306" spans="1:39" hidden="1">
+    <row r="306" spans="1:39">
       <c r="A306" t="s">
         <v>217</v>
       </c>
@@ -26349,7 +26353,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="307" spans="1:39" hidden="1">
+    <row r="307" spans="1:39">
       <c r="A307" t="s">
         <v>542</v>
       </c>
@@ -26421,7 +26425,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="308" spans="1:39" hidden="1">
+    <row r="308" spans="1:39">
       <c r="A308" t="s">
         <v>158</v>
       </c>
@@ -26487,7 +26491,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="309" spans="1:39" hidden="1">
+    <row r="309" spans="1:39">
       <c r="A309" t="s">
         <v>89</v>
       </c>
@@ -26559,7 +26563,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="310" spans="1:39" hidden="1">
+    <row r="310" spans="1:39">
       <c r="A310" t="s">
         <v>340</v>
       </c>
@@ -26631,7 +26635,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="311" spans="1:39" hidden="1">
+    <row r="311" spans="1:39">
       <c r="A311" t="s">
         <v>691</v>
       </c>
@@ -26697,7 +26701,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="312" spans="1:39" hidden="1">
+    <row r="312" spans="1:39">
       <c r="A312" t="s">
         <v>73</v>
       </c>
@@ -26763,7 +26767,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="313" spans="1:39" hidden="1">
+    <row r="313" spans="1:39">
       <c r="A313" t="s">
         <v>593</v>
       </c>
@@ -26829,7 +26833,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="314" spans="1:39" hidden="1">
+    <row r="314" spans="1:39">
       <c r="A314" t="s">
         <v>47</v>
       </c>
@@ -26895,7 +26899,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="315" spans="1:39" hidden="1">
+    <row r="315" spans="1:39">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -26967,7 +26971,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="316" spans="1:39" hidden="1">
+    <row r="316" spans="1:39">
       <c r="A316" t="s">
         <v>771</v>
       </c>
@@ -27039,7 +27043,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="317" spans="1:39" hidden="1">
+    <row r="317" spans="1:39">
       <c r="A317" t="s">
         <v>1303</v>
       </c>
@@ -27111,7 +27115,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="318" spans="1:39" hidden="1">
+    <row r="318" spans="1:39">
       <c r="A318" t="s">
         <v>399</v>
       </c>
@@ -27183,7 +27187,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="319" spans="1:39" hidden="1">
+    <row r="319" spans="1:39">
       <c r="A319" t="s">
         <v>31</v>
       </c>
@@ -27249,7 +27253,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="320" spans="1:39" hidden="1">
+    <row r="320" spans="1:39">
       <c r="A320" t="s">
         <v>431</v>
       </c>
@@ -27315,7 +27319,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="321" spans="1:39" hidden="1">
+    <row r="321" spans="1:39">
       <c r="A321" t="s">
         <v>999</v>
       </c>
@@ -27381,7 +27385,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="322" spans="1:39" hidden="1">
+    <row r="322" spans="1:39">
       <c r="A322" t="s">
         <v>117</v>
       </c>
@@ -27450,7 +27454,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="323" spans="1:39" hidden="1">
+    <row r="323" spans="1:39">
       <c r="A323" t="s">
         <v>331</v>
       </c>
@@ -27522,7 +27526,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="324" spans="1:39" hidden="1">
+    <row r="324" spans="1:39">
       <c r="A324" t="s">
         <v>134</v>
       </c>
@@ -27594,7 +27598,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="325" spans="1:39" hidden="1">
+    <row r="325" spans="1:39">
       <c r="A325" t="s">
         <v>991</v>
       </c>
@@ -27666,7 +27670,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="326" spans="1:39" hidden="1">
+    <row r="326" spans="1:39">
       <c r="A326" t="s">
         <v>364</v>
       </c>
@@ -27738,7 +27742,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="327" spans="1:39" hidden="1">
+    <row r="327" spans="1:39">
       <c r="A327" t="s">
         <v>267</v>
       </c>
@@ -27810,7 +27814,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="328" spans="1:39" hidden="1">
+    <row r="328" spans="1:39">
       <c r="A328" t="s">
         <v>266</v>
       </c>
@@ -27882,7 +27886,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="329" spans="1:39" hidden="1">
+    <row r="329" spans="1:39">
       <c r="A329" t="s">
         <v>98</v>
       </c>
@@ -27948,7 +27952,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="330" spans="1:39" hidden="1">
+    <row r="330" spans="1:39">
       <c r="A330" t="s">
         <v>223</v>
       </c>
@@ -28020,7 +28024,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="331" spans="1:39" hidden="1">
+    <row r="331" spans="1:39">
       <c r="A331" t="s">
         <v>168</v>
       </c>
@@ -28092,7 +28096,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="332" spans="1:39" hidden="1">
+    <row r="332" spans="1:39">
       <c r="A332" t="s">
         <v>184</v>
       </c>
@@ -28164,7 +28168,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="333" spans="1:39" hidden="1">
+    <row r="333" spans="1:39">
       <c r="A333" t="s">
         <v>522</v>
       </c>
@@ -28236,7 +28240,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="334" spans="1:39" hidden="1">
+    <row r="334" spans="1:39">
       <c r="A334" t="s">
         <v>520</v>
       </c>
@@ -28308,7 +28312,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="335" spans="1:39" hidden="1">
+    <row r="335" spans="1:39">
       <c r="A335" t="s">
         <v>851</v>
       </c>
@@ -28380,7 +28384,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="336" spans="1:39" hidden="1">
+    <row r="336" spans="1:39">
       <c r="A336" t="s">
         <v>346</v>
       </c>
@@ -28452,7 +28456,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="337" spans="1:39" hidden="1">
+    <row r="337" spans="1:39">
       <c r="A337" t="s">
         <v>595</v>
       </c>
@@ -28524,7 +28528,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="338" spans="1:39" hidden="1">
+    <row r="338" spans="1:39">
       <c r="A338" t="s">
         <v>410</v>
       </c>
@@ -28596,7 +28600,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="339" spans="1:39" hidden="1">
+    <row r="339" spans="1:39">
       <c r="A339" t="s">
         <v>47</v>
       </c>
@@ -28662,7 +28666,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="340" spans="1:39" hidden="1">
+    <row r="340" spans="1:39">
       <c r="A340" t="s">
         <v>531</v>
       </c>
@@ -28728,7 +28732,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="341" spans="1:39" hidden="1">
+    <row r="341" spans="1:39">
       <c r="A341" t="s">
         <v>84</v>
       </c>
@@ -28800,7 +28804,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="342" spans="1:39" hidden="1">
+    <row r="342" spans="1:39">
       <c r="A342" t="s">
         <v>377</v>
       </c>
@@ -28866,7 +28870,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="343" spans="1:39" hidden="1">
+    <row r="343" spans="1:39">
       <c r="A343" t="s">
         <v>321</v>
       </c>
@@ -28938,7 +28942,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="344" spans="1:39" hidden="1">
+    <row r="344" spans="1:39">
       <c r="A344" t="s">
         <v>597</v>
       </c>
@@ -29010,7 +29014,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="345" spans="1:39" hidden="1">
+    <row r="345" spans="1:39">
       <c r="A345" t="s">
         <v>73</v>
       </c>
@@ -29082,7 +29086,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="346" spans="1:39" hidden="1">
+    <row r="346" spans="1:39">
       <c r="A346" t="s">
         <v>182</v>
       </c>
@@ -29154,7 +29158,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="347" spans="1:39" hidden="1">
+    <row r="347" spans="1:39">
       <c r="A347" t="s">
         <v>871</v>
       </c>
@@ -29226,7 +29230,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="348" spans="1:39" hidden="1">
+    <row r="348" spans="1:39">
       <c r="A348" t="s">
         <v>115</v>
       </c>
@@ -29298,7 +29302,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="349" spans="1:39" hidden="1">
+    <row r="349" spans="1:39">
       <c r="A349" t="s">
         <v>280</v>
       </c>
@@ -29370,7 +29374,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="350" spans="1:39" hidden="1">
+    <row r="350" spans="1:39">
       <c r="A350" t="s">
         <v>477</v>
       </c>
@@ -29442,7 +29446,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="351" spans="1:39" hidden="1">
+    <row r="351" spans="1:39">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -29514,7 +29518,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="352" spans="1:39" hidden="1">
+    <row r="352" spans="1:39">
       <c r="A352" t="s">
         <v>757</v>
       </c>
@@ -29586,7 +29590,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="353" spans="1:39" hidden="1">
+    <row r="353" spans="1:39">
       <c r="A353" t="s">
         <v>434</v>
       </c>
@@ -29658,7 +29662,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="354" spans="1:39" hidden="1">
+    <row r="354" spans="1:39">
       <c r="A354" t="s">
         <v>1204</v>
       </c>
@@ -29724,7 +29728,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="355" spans="1:39" hidden="1">
+    <row r="355" spans="1:39">
       <c r="A355" t="s">
         <v>321</v>
       </c>
@@ -29790,7 +29794,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="356" spans="1:39" hidden="1">
+    <row r="356" spans="1:39">
       <c r="A356" t="s">
         <v>324</v>
       </c>
@@ -29862,7 +29866,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="357" spans="1:39" hidden="1">
+    <row r="357" spans="1:39">
       <c r="A357" t="s">
         <v>212</v>
       </c>
@@ -29934,7 +29938,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="358" spans="1:39" hidden="1">
+    <row r="358" spans="1:39">
       <c r="A358" t="s">
         <v>337</v>
       </c>
@@ -30006,7 +30010,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="359" spans="1:39" hidden="1">
+    <row r="359" spans="1:39">
       <c r="A359" t="s">
         <v>210</v>
       </c>
@@ -30078,7 +30082,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="360" spans="1:39" hidden="1">
+    <row r="360" spans="1:39">
       <c r="A360" t="s">
         <v>987</v>
       </c>
@@ -30150,7 +30154,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="361" spans="1:39" hidden="1">
+    <row r="361" spans="1:39">
       <c r="A361" t="s">
         <v>871</v>
       </c>
@@ -30222,7 +30226,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="362" spans="1:39" hidden="1">
+    <row r="362" spans="1:39">
       <c r="A362" t="s">
         <v>1249</v>
       </c>
@@ -30294,7 +30298,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="363" spans="1:39" hidden="1">
+    <row r="363" spans="1:39">
       <c r="A363" t="s">
         <v>886</v>
       </c>
@@ -30366,7 +30370,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="364" spans="1:39" hidden="1">
+    <row r="364" spans="1:39">
       <c r="A364" t="s">
         <v>971</v>
       </c>
@@ -30438,7 +30442,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="365" spans="1:39" hidden="1">
+    <row r="365" spans="1:39">
       <c r="A365" t="s">
         <v>154</v>
       </c>
@@ -30510,7 +30514,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="366" spans="1:39" hidden="1">
+    <row r="366" spans="1:39">
       <c r="A366" t="s">
         <v>357</v>
       </c>
@@ -30582,7 +30586,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="367" spans="1:39" hidden="1">
+    <row r="367" spans="1:39">
       <c r="A367" t="s">
         <v>714</v>
       </c>
@@ -30654,7 +30658,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="368" spans="1:39" hidden="1">
+    <row r="368" spans="1:39">
       <c r="A368" t="s">
         <v>475</v>
       </c>
@@ -30798,7 +30802,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="370" spans="1:39" hidden="1">
+    <row r="370" spans="1:39">
       <c r="A370" t="s">
         <v>307</v>
       </c>
@@ -30870,7 +30874,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="371" spans="1:39" hidden="1">
+    <row r="371" spans="1:39">
       <c r="A371" t="s">
         <v>305</v>
       </c>
@@ -30942,7 +30946,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="372" spans="1:39" hidden="1">
+    <row r="372" spans="1:39">
       <c r="A372" t="s">
         <v>1100</v>
       </c>
@@ -31014,7 +31018,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="373" spans="1:39" hidden="1">
+    <row r="373" spans="1:39">
       <c r="A373" t="s">
         <v>199</v>
       </c>
@@ -31080,7 +31084,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="374" spans="1:39" hidden="1">
+    <row r="374" spans="1:39">
       <c r="A374" t="s">
         <v>334</v>
       </c>
@@ -31152,7 +31156,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="375" spans="1:39" hidden="1">
+    <row r="375" spans="1:39">
       <c r="A375" t="s">
         <v>1145</v>
       </c>
@@ -31218,7 +31222,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="376" spans="1:39" hidden="1">
+    <row r="376" spans="1:39">
       <c r="A376" t="s">
         <v>445</v>
       </c>
@@ -31290,7 +31294,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="377" spans="1:39" hidden="1">
+    <row r="377" spans="1:39">
       <c r="A377" t="s">
         <v>832</v>
       </c>
@@ -31362,7 +31366,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="378" spans="1:39" hidden="1">
+    <row r="378" spans="1:39">
       <c r="A378" t="s">
         <v>199</v>
       </c>
@@ -31428,7 +31432,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="379" spans="1:39" hidden="1">
+    <row r="379" spans="1:39">
       <c r="A379" t="s">
         <v>1159</v>
       </c>
@@ -31500,7 +31504,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="380" spans="1:39" hidden="1">
+    <row r="380" spans="1:39">
       <c r="A380" t="s">
         <v>334</v>
       </c>
@@ -31572,7 +31576,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="381" spans="1:39" hidden="1">
+    <row r="381" spans="1:39">
       <c r="A381" t="s">
         <v>537</v>
       </c>
@@ -31644,7 +31648,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="382" spans="1:39" hidden="1">
+    <row r="382" spans="1:39">
       <c r="A382" t="s">
         <v>464</v>
       </c>
@@ -31716,7 +31720,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="383" spans="1:39" hidden="1">
+    <row r="383" spans="1:39">
       <c r="A383" t="s">
         <v>597</v>
       </c>
@@ -31788,7 +31792,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="384" spans="1:39" hidden="1">
+    <row r="384" spans="1:39">
       <c r="A384" t="s">
         <v>122</v>
       </c>
@@ -31860,7 +31864,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="385" spans="1:39" hidden="1">
+    <row r="385" spans="1:39">
       <c r="A385" t="s">
         <v>1088</v>
       </c>
@@ -31929,7 +31933,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="386" spans="1:39" hidden="1">
+    <row r="386" spans="1:39">
       <c r="A386" t="s">
         <v>480</v>
       </c>
@@ -32001,7 +32005,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="387" spans="1:39" hidden="1">
+    <row r="387" spans="1:39">
       <c r="A387" t="s">
         <v>144</v>
       </c>
@@ -32067,7 +32071,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="388" spans="1:39" hidden="1">
+    <row r="388" spans="1:39">
       <c r="A388" t="s">
         <v>172</v>
       </c>
@@ -32139,7 +32143,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="389" spans="1:39" hidden="1">
+    <row r="389" spans="1:39">
       <c r="A389" t="s">
         <v>517</v>
       </c>
@@ -32211,7 +32215,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="390" spans="1:39" hidden="1">
+    <row r="390" spans="1:39">
       <c r="A390" t="s">
         <v>1086</v>
       </c>
@@ -32283,7 +32287,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="391" spans="1:39" hidden="1">
+    <row r="391" spans="1:39">
       <c r="A391" t="s">
         <v>957</v>
       </c>
@@ -32355,7 +32359,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="392" spans="1:39" hidden="1">
+    <row r="392" spans="1:39">
       <c r="A392" t="s">
         <v>701</v>
       </c>
@@ -32427,7 +32431,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="393" spans="1:39" hidden="1">
+    <row r="393" spans="1:39">
       <c r="A393" t="s">
         <v>494</v>
       </c>
@@ -32499,7 +32503,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="394" spans="1:39" hidden="1">
+    <row r="394" spans="1:39">
       <c r="A394" t="s">
         <v>256</v>
       </c>
@@ -32565,7 +32569,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="395" spans="1:39" hidden="1">
+    <row r="395" spans="1:39">
       <c r="A395" t="s">
         <v>39</v>
       </c>
@@ -32637,7 +32641,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="396" spans="1:39" hidden="1">
+    <row r="396" spans="1:39">
       <c r="A396" t="s">
         <v>119</v>
       </c>
@@ -32709,7 +32713,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="397" spans="1:39" hidden="1">
+    <row r="397" spans="1:39">
       <c r="A397" t="s">
         <v>1258</v>
       </c>
@@ -32781,7 +32785,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="398" spans="1:39" hidden="1">
+    <row r="398" spans="1:39">
       <c r="A398" t="s">
         <v>58</v>
       </c>
@@ -32853,7 +32857,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="399" spans="1:39" hidden="1">
+    <row r="399" spans="1:39">
       <c r="A399" t="s">
         <v>1251</v>
       </c>
@@ -32925,7 +32929,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="400" spans="1:39" hidden="1">
+    <row r="400" spans="1:39">
       <c r="A400" t="s">
         <v>682</v>
       </c>
@@ -32997,7 +33001,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="401" spans="1:39" hidden="1">
+    <row r="401" spans="1:39">
       <c r="A401" t="s">
         <v>137</v>
       </c>
@@ -33063,7 +33067,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="402" spans="1:39" hidden="1">
+    <row r="402" spans="1:39">
       <c r="A402" t="s">
         <v>298</v>
       </c>
@@ -33135,7 +33139,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="403" spans="1:39" hidden="1">
+    <row r="403" spans="1:39">
       <c r="A403" t="s">
         <v>604</v>
       </c>
@@ -33207,7 +33211,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="404" spans="1:39" hidden="1">
+    <row r="404" spans="1:39">
       <c r="A404" t="s">
         <v>1127</v>
       </c>
@@ -33279,7 +33283,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="405" spans="1:39" hidden="1">
+    <row r="405" spans="1:39">
       <c r="A405" t="s">
         <v>1143</v>
       </c>
@@ -33351,7 +33355,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="406" spans="1:39" hidden="1">
+    <row r="406" spans="1:39">
       <c r="A406" t="s">
         <v>602</v>
       </c>
@@ -33423,7 +33427,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="407" spans="1:39" hidden="1">
+    <row r="407" spans="1:39">
       <c r="A407" t="s">
         <v>49</v>
       </c>
@@ -33495,7 +33499,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="408" spans="1:39" hidden="1">
+    <row r="408" spans="1:39">
       <c r="A408" t="s">
         <v>548</v>
       </c>
@@ -33567,7 +33571,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="409" spans="1:39" hidden="1">
+    <row r="409" spans="1:39">
       <c r="A409" t="s">
         <v>644</v>
       </c>
@@ -33639,7 +33643,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="410" spans="1:39" hidden="1">
+    <row r="410" spans="1:39">
       <c r="A410" t="s">
         <v>1151</v>
       </c>
@@ -33711,7 +33715,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="411" spans="1:39" hidden="1">
+    <row r="411" spans="1:39">
       <c r="A411" t="s">
         <v>1120</v>
       </c>
@@ -33783,7 +33787,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="412" spans="1:39" hidden="1">
+    <row r="412" spans="1:39">
       <c r="A412" t="s">
         <v>681</v>
       </c>
@@ -33855,7 +33859,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="413" spans="1:39" hidden="1">
+    <row r="413" spans="1:39">
       <c r="A413" t="s">
         <v>620</v>
       </c>
@@ -33927,7 +33931,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="414" spans="1:39" hidden="1">
+    <row r="414" spans="1:39">
       <c r="A414" t="s">
         <v>619</v>
       </c>
@@ -33999,7 +34003,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="415" spans="1:39" hidden="1">
+    <row r="415" spans="1:39">
       <c r="A415" t="s">
         <v>849</v>
       </c>
@@ -34071,7 +34075,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="416" spans="1:39" hidden="1">
+    <row r="416" spans="1:39">
       <c r="A416" t="s">
         <v>229</v>
       </c>
@@ -34143,7 +34147,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="417" spans="1:39" hidden="1">
+    <row r="417" spans="1:39">
       <c r="A417" t="s">
         <v>790</v>
       </c>
@@ -34221,7 +34225,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="418" spans="1:39" hidden="1">
+    <row r="418" spans="1:39">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -34293,7 +34297,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="419" spans="1:39" hidden="1">
+    <row r="419" spans="1:39">
       <c r="A419" t="s">
         <v>1168</v>
       </c>
@@ -34365,7 +34369,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="420" spans="1:39" hidden="1">
+    <row r="420" spans="1:39">
       <c r="A420" t="s">
         <v>77</v>
       </c>
@@ -34431,7 +34435,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="421" spans="1:39" hidden="1">
+    <row r="421" spans="1:39">
       <c r="A421" t="s">
         <v>1165</v>
       </c>
@@ -34497,7 +34501,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="422" spans="1:39" hidden="1">
+    <row r="422" spans="1:39">
       <c r="A422" t="s">
         <v>856</v>
       </c>
@@ -34569,7 +34573,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="423" spans="1:39" hidden="1">
+    <row r="423" spans="1:39">
       <c r="A423" t="s">
         <v>1223</v>
       </c>
@@ -34641,7 +34645,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="424" spans="1:39" hidden="1">
+    <row r="424" spans="1:39">
       <c r="A424" t="s">
         <v>648</v>
       </c>
@@ -34713,7 +34717,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="425" spans="1:39" hidden="1">
+    <row r="425" spans="1:39">
       <c r="A425" t="s">
         <v>89</v>
       </c>
@@ -34785,7 +34789,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="426" spans="1:39" hidden="1">
+    <row r="426" spans="1:39">
       <c r="A426" t="s">
         <v>742</v>
       </c>
@@ -34857,7 +34861,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="427" spans="1:39" hidden="1">
+    <row r="427" spans="1:39">
       <c r="A427" t="s">
         <v>358</v>
       </c>
@@ -34929,7 +34933,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="428" spans="1:39" hidden="1">
+    <row r="428" spans="1:39">
       <c r="A428" t="s">
         <v>434</v>
       </c>
@@ -35001,7 +35005,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="429" spans="1:39" hidden="1">
+    <row r="429" spans="1:39">
       <c r="A429" t="s">
         <v>96</v>
       </c>
@@ -35073,7 +35077,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="430" spans="1:39" hidden="1">
+    <row r="430" spans="1:39">
       <c r="A430" t="s">
         <v>433</v>
       </c>
@@ -35145,7 +35149,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="431" spans="1:39" hidden="1">
+    <row r="431" spans="1:39">
       <c r="A431" t="s">
         <v>395</v>
       </c>
@@ -35217,7 +35221,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="432" spans="1:39" hidden="1">
+    <row r="432" spans="1:39">
       <c r="A432" t="s">
         <v>903</v>
       </c>
@@ -35289,7 +35293,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="433" spans="1:39" hidden="1">
+    <row r="433" spans="1:39">
       <c r="A433" t="s">
         <v>96</v>
       </c>
@@ -35361,7 +35365,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="434" spans="1:39" hidden="1">
+    <row r="434" spans="1:39">
       <c r="A434" t="s">
         <v>484</v>
       </c>
@@ -35433,7 +35437,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="435" spans="1:39" hidden="1">
+    <row r="435" spans="1:39">
       <c r="A435" t="s">
         <v>202</v>
       </c>
@@ -35505,7 +35509,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="436" spans="1:39" hidden="1">
+    <row r="436" spans="1:39">
       <c r="A436" t="s">
         <v>47</v>
       </c>
@@ -35577,7 +35581,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="437" spans="1:39" hidden="1">
+    <row r="437" spans="1:39">
       <c r="A437" t="s">
         <v>1022</v>
       </c>
@@ -35649,7 +35653,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="438" spans="1:39" hidden="1">
+    <row r="438" spans="1:39">
       <c r="A438" t="s">
         <v>488</v>
       </c>
@@ -35715,7 +35719,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="439" spans="1:39" hidden="1">
+    <row r="439" spans="1:39">
       <c r="A439" t="s">
         <v>667</v>
       </c>
@@ -35787,7 +35791,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="440" spans="1:39" hidden="1">
+    <row r="440" spans="1:39">
       <c r="A440" t="s">
         <v>529</v>
       </c>
@@ -35859,7 +35863,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="441" spans="1:39" hidden="1">
+    <row r="441" spans="1:39">
       <c r="A441" t="s">
         <v>585</v>
       </c>
@@ -35931,7 +35935,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="442" spans="1:39" hidden="1">
+    <row r="442" spans="1:39">
       <c r="A442" t="s">
         <v>1263</v>
       </c>
@@ -36003,7 +36007,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="443" spans="1:39" hidden="1">
+    <row r="443" spans="1:39">
       <c r="A443" t="s">
         <v>802</v>
       </c>
@@ -36075,7 +36079,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="444" spans="1:39" hidden="1">
+    <row r="444" spans="1:39">
       <c r="A444" t="s">
         <v>429</v>
       </c>
@@ -36147,7 +36151,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="445" spans="1:39" hidden="1">
+    <row r="445" spans="1:39">
       <c r="A445" t="s">
         <v>242</v>
       </c>
@@ -36213,7 +36217,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="446" spans="1:39" hidden="1">
+    <row r="446" spans="1:39">
       <c r="A446" t="s">
         <v>364</v>
       </c>
@@ -36285,7 +36289,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="447" spans="1:39" hidden="1">
+    <row r="447" spans="1:39">
       <c r="A447" t="s">
         <v>210</v>
       </c>
@@ -36357,7 +36361,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="448" spans="1:39" hidden="1">
+    <row r="448" spans="1:39">
       <c r="A448" t="s">
         <v>324</v>
       </c>
@@ -36429,7 +36433,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="449" spans="1:39" hidden="1">
+    <row r="449" spans="1:39">
       <c r="A449" t="s">
         <v>122</v>
       </c>
@@ -36501,7 +36505,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="450" spans="1:39" hidden="1">
+    <row r="450" spans="1:39">
       <c r="A450" t="s">
         <v>331</v>
       </c>
@@ -36573,7 +36577,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="451" spans="1:39" hidden="1">
+    <row r="451" spans="1:39">
       <c r="A451" t="s">
         <v>68</v>
       </c>
@@ -36639,7 +36643,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="452" spans="1:39" hidden="1">
+    <row r="452" spans="1:39">
       <c r="A452" t="s">
         <v>14</v>
       </c>
@@ -36711,7 +36715,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="453" spans="1:39" hidden="1">
+    <row r="453" spans="1:39">
       <c r="A453" t="s">
         <v>298</v>
       </c>
@@ -36783,7 +36787,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="454" spans="1:39" hidden="1">
+    <row r="454" spans="1:39">
       <c r="A454" t="s">
         <v>388</v>
       </c>
@@ -36855,7 +36859,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="455" spans="1:39" hidden="1">
+    <row r="455" spans="1:39">
       <c r="A455" t="s">
         <v>115</v>
       </c>
@@ -36927,7 +36931,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="456" spans="1:39" hidden="1">
+    <row r="456" spans="1:39">
       <c r="A456" t="s">
         <v>494</v>
       </c>
@@ -36999,7 +37003,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="457" spans="1:39" hidden="1">
+    <row r="457" spans="1:39">
       <c r="A457" t="s">
         <v>360</v>
       </c>
@@ -37065,7 +37069,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="458" spans="1:39" hidden="1">
+    <row r="458" spans="1:39">
       <c r="A458" t="s">
         <v>400</v>
       </c>
@@ -37137,7 +37141,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="459" spans="1:39" hidden="1">
+    <row r="459" spans="1:39">
       <c r="A459" t="s">
         <v>287</v>
       </c>
@@ -37209,7 +37213,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="460" spans="1:39" hidden="1">
+    <row r="460" spans="1:39">
       <c r="A460" t="s">
         <v>122</v>
       </c>
@@ -37281,7 +37285,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="461" spans="1:39" hidden="1">
+    <row r="461" spans="1:39">
       <c r="A461" t="s">
         <v>1295</v>
       </c>
@@ -37347,7 +37351,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="462" spans="1:39" hidden="1">
+    <row r="462" spans="1:39">
       <c r="A462" t="s">
         <v>77</v>
       </c>
@@ -37413,7 +37417,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="463" spans="1:39" hidden="1">
+    <row r="463" spans="1:39">
       <c r="A463" t="s">
         <v>352</v>
       </c>
@@ -37485,7 +37489,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="464" spans="1:39" hidden="1">
+    <row r="464" spans="1:39">
       <c r="A464" t="s">
         <v>238</v>
       </c>
@@ -37557,7 +37561,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="465" spans="1:39" hidden="1">
+    <row r="465" spans="1:39">
       <c r="A465" t="s">
         <v>732</v>
       </c>
@@ -37629,7 +37633,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="466" spans="1:39" hidden="1">
+    <row r="466" spans="1:39">
       <c r="A466" t="s">
         <v>802</v>
       </c>
@@ -37701,7 +37705,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="467" spans="1:39" hidden="1">
+    <row r="467" spans="1:39">
       <c r="A467" t="s">
         <v>128</v>
       </c>
@@ -37773,7 +37777,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="468" spans="1:39" hidden="1">
+    <row r="468" spans="1:39">
       <c r="A468" t="s">
         <v>1010</v>
       </c>
@@ -37845,7 +37849,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="469" spans="1:39" hidden="1">
+    <row r="469" spans="1:39">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -37917,7 +37921,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="470" spans="1:39" hidden="1">
+    <row r="470" spans="1:39">
       <c r="A470" t="s">
         <v>650</v>
       </c>
@@ -37983,7 +37987,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="471" spans="1:39" hidden="1">
+    <row r="471" spans="1:39">
       <c r="A471" t="s">
         <v>51</v>
       </c>
@@ -38055,7 +38059,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="472" spans="1:39" hidden="1">
+    <row r="472" spans="1:39">
       <c r="A472" t="s">
         <v>796</v>
       </c>
@@ -38127,7 +38131,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="473" spans="1:39" hidden="1">
+    <row r="473" spans="1:39">
       <c r="A473" t="s">
         <v>229</v>
       </c>
@@ -38199,7 +38203,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="474" spans="1:39" hidden="1">
+    <row r="474" spans="1:39">
       <c r="A474" t="s">
         <v>228</v>
       </c>
@@ -38271,7 +38275,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="475" spans="1:39" hidden="1">
+    <row r="475" spans="1:39">
       <c r="A475" t="s">
         <v>36</v>
       </c>
@@ -38337,7 +38341,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="476" spans="1:39" hidden="1">
+    <row r="476" spans="1:39">
       <c r="A476" t="s">
         <v>1030</v>
       </c>
@@ -38406,7 +38410,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="477" spans="1:39" hidden="1">
+    <row r="477" spans="1:39">
       <c r="A477" t="s">
         <v>36</v>
       </c>
@@ -38478,7 +38482,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="478" spans="1:39" hidden="1">
+    <row r="478" spans="1:39">
       <c r="A478" t="s">
         <v>146</v>
       </c>
@@ -38544,7 +38548,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="479" spans="1:39" hidden="1">
+    <row r="479" spans="1:39">
       <c r="A479" t="s">
         <v>326</v>
       </c>
@@ -38616,7 +38620,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="480" spans="1:39" hidden="1">
+    <row r="480" spans="1:39">
       <c r="A480" t="s">
         <v>777</v>
       </c>
@@ -38688,7 +38692,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="481" spans="1:39" hidden="1">
+    <row r="481" spans="1:39">
       <c r="A481" t="s">
         <v>270</v>
       </c>
@@ -38754,7 +38758,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="482" spans="1:39" hidden="1">
+    <row r="482" spans="1:39">
       <c r="A482" t="s">
         <v>922</v>
       </c>
@@ -38820,7 +38824,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="483" spans="1:39" hidden="1">
+    <row r="483" spans="1:39">
       <c r="A483" t="s">
         <v>103</v>
       </c>
@@ -38892,7 +38896,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="484" spans="1:39" hidden="1">
+    <row r="484" spans="1:39">
       <c r="A484" t="s">
         <v>36</v>
       </c>
@@ -38958,7 +38962,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="485" spans="1:39" hidden="1">
+    <row r="485" spans="1:39">
       <c r="A485" t="s">
         <v>182</v>
       </c>
@@ -39030,7 +39034,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="486" spans="1:39" hidden="1">
+    <row r="486" spans="1:39">
       <c r="A486" t="s">
         <v>81</v>
       </c>
@@ -39102,7 +39106,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="487" spans="1:39" hidden="1">
+    <row r="487" spans="1:39">
       <c r="A487" t="s">
         <v>36</v>
       </c>
@@ -39168,7 +39172,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="488" spans="1:39" hidden="1">
+    <row r="488" spans="1:39">
       <c r="A488" t="s">
         <v>1015</v>
       </c>
@@ -39240,7 +39244,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="489" spans="1:39" hidden="1">
+    <row r="489" spans="1:39">
       <c r="A489" t="s">
         <v>841</v>
       </c>
@@ -39306,7 +39310,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="490" spans="1:39" hidden="1">
+    <row r="490" spans="1:39">
       <c r="A490" t="s">
         <v>364</v>
       </c>
@@ -39372,7 +39376,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="491" spans="1:39" hidden="1">
+    <row r="491" spans="1:39">
       <c r="A491" t="s">
         <v>33</v>
       </c>
@@ -39444,7 +39448,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="492" spans="1:39" hidden="1">
+    <row r="492" spans="1:39">
       <c r="A492" t="s">
         <v>31</v>
       </c>
@@ -39516,7 +39520,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="493" spans="1:39" hidden="1">
+    <row r="493" spans="1:39">
       <c r="A493" t="s">
         <v>73</v>
       </c>
@@ -39588,7 +39592,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="494" spans="1:39" hidden="1">
+    <row r="494" spans="1:39">
       <c r="A494" t="s">
         <v>99</v>
       </c>
@@ -39657,7 +39661,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="495" spans="1:39" hidden="1">
+    <row r="495" spans="1:39">
       <c r="A495" t="s">
         <v>481</v>
       </c>
@@ -39723,7 +39727,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="496" spans="1:39" hidden="1">
+    <row r="496" spans="1:39">
       <c r="A496" t="s">
         <v>1173</v>
       </c>
@@ -39795,7 +39799,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="497" spans="1:39" hidden="1">
+    <row r="497" spans="1:39">
       <c r="A497" t="s">
         <v>694</v>
       </c>
@@ -39867,7 +39871,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="498" spans="1:39" hidden="1">
+    <row r="498" spans="1:39">
       <c r="A498" t="s">
         <v>641</v>
       </c>
@@ -39939,7 +39943,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="499" spans="1:39" hidden="1">
+    <row r="499" spans="1:39">
       <c r="A499" t="s">
         <v>873</v>
       </c>
@@ -40011,7 +40015,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="500" spans="1:39" hidden="1">
+    <row r="500" spans="1:39">
       <c r="A500" t="s">
         <v>480</v>
       </c>
@@ -40077,7 +40081,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="501" spans="1:39" hidden="1">
+    <row r="501" spans="1:39">
       <c r="A501" t="s">
         <v>502</v>
       </c>
@@ -40149,7 +40153,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="502" spans="1:39" hidden="1">
+    <row r="502" spans="1:39">
       <c r="A502" t="s">
         <v>1286</v>
       </c>
@@ -40221,7 +40225,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="503" spans="1:39" hidden="1">
+    <row r="503" spans="1:39">
       <c r="A503" t="s">
         <v>993</v>
       </c>
@@ -40293,7 +40297,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="504" spans="1:39" hidden="1">
+    <row r="504" spans="1:39">
       <c r="A504" t="s">
         <v>289</v>
       </c>
@@ -40359,7 +40363,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="505" spans="1:39" hidden="1">
+    <row r="505" spans="1:39">
       <c r="A505" t="s">
         <v>171</v>
       </c>
@@ -40431,7 +40435,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="506" spans="1:39" hidden="1">
+    <row r="506" spans="1:39">
       <c r="A506" t="s">
         <v>187</v>
       </c>
@@ -40503,7 +40507,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="507" spans="1:39" hidden="1">
+    <row r="507" spans="1:39">
       <c r="A507" t="s">
         <v>171</v>
       </c>
@@ -40575,7 +40579,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="508" spans="1:39" hidden="1">
+    <row r="508" spans="1:39">
       <c r="A508" t="s">
         <v>1244</v>
       </c>
@@ -40647,7 +40651,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="509" spans="1:39" hidden="1">
+    <row r="509" spans="1:39">
       <c r="A509" t="s">
         <v>659</v>
       </c>
@@ -40719,7 +40723,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="510" spans="1:39" hidden="1">
+    <row r="510" spans="1:39">
       <c r="A510" t="s">
         <v>429</v>
       </c>
@@ -40785,7 +40789,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="511" spans="1:39" hidden="1">
+    <row r="511" spans="1:39">
       <c r="A511" t="s">
         <v>171</v>
       </c>
@@ -40857,7 +40861,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="512" spans="1:39" hidden="1">
+    <row r="512" spans="1:39">
       <c r="A512" t="s">
         <v>298</v>
       </c>
@@ -40929,7 +40933,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="513" spans="1:39" hidden="1">
+    <row r="513" spans="1:39">
       <c r="A513" t="s">
         <v>416</v>
       </c>
@@ -40995,7 +40999,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="514" spans="1:39" hidden="1">
+    <row r="514" spans="1:39">
       <c r="A514" t="s">
         <v>305</v>
       </c>
@@ -41067,7 +41071,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="515" spans="1:39" hidden="1">
+    <row r="515" spans="1:39">
       <c r="A515" t="s">
         <v>101</v>
       </c>
@@ -41139,7 +41143,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="516" spans="1:39" hidden="1">
+    <row r="516" spans="1:39">
       <c r="A516" t="s">
         <v>182</v>
       </c>
@@ -41211,7 +41215,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="517" spans="1:39" hidden="1">
+    <row r="517" spans="1:39">
       <c r="A517" t="s">
         <v>573</v>
       </c>
@@ -41277,7 +41281,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="518" spans="1:39" hidden="1">
+    <row r="518" spans="1:39">
       <c r="A518" t="s">
         <v>385</v>
       </c>
@@ -41349,7 +41353,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="519" spans="1:39" hidden="1">
+    <row r="519" spans="1:39">
       <c r="A519" t="s">
         <v>443</v>
       </c>
@@ -41421,7 +41425,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="520" spans="1:39" hidden="1">
+    <row r="520" spans="1:39">
       <c r="A520" t="s">
         <v>442</v>
       </c>
@@ -41493,7 +41497,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="521" spans="1:39" hidden="1">
+    <row r="521" spans="1:39">
       <c r="A521" t="s">
         <v>1292</v>
       </c>
@@ -41565,7 +41569,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="522" spans="1:39" hidden="1">
+    <row r="522" spans="1:39">
       <c r="A522" t="s">
         <v>679</v>
       </c>
@@ -41631,7 +41635,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="523" spans="1:39" hidden="1">
+    <row r="523" spans="1:39">
       <c r="A523" t="s">
         <v>144</v>
       </c>
@@ -41697,7 +41701,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="524" spans="1:39" hidden="1">
+    <row r="524" spans="1:39">
       <c r="A524" t="s">
         <v>36</v>
       </c>
@@ -41769,7 +41773,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="525" spans="1:39" hidden="1">
+    <row r="525" spans="1:39">
       <c r="A525" t="s">
         <v>371</v>
       </c>
@@ -41841,7 +41845,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="526" spans="1:39" hidden="1">
+    <row r="526" spans="1:39">
       <c r="A526" t="s">
         <v>364</v>
       </c>
@@ -41913,7 +41917,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="527" spans="1:39" hidden="1">
+    <row r="527" spans="1:39">
       <c r="A527" t="s">
         <v>669</v>
       </c>
@@ -41985,7 +41989,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="528" spans="1:39" hidden="1">
+    <row r="528" spans="1:39">
       <c r="A528" t="s">
         <v>559</v>
       </c>
@@ -42051,7 +42055,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="529" spans="1:39" hidden="1">
+    <row r="529" spans="1:39">
       <c r="A529" t="s">
         <v>558</v>
       </c>
@@ -42117,7 +42121,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="530" spans="1:39" hidden="1">
+    <row r="530" spans="1:39">
       <c r="A530" t="s">
         <v>68</v>
       </c>
@@ -42183,7 +42187,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="531" spans="1:39" hidden="1">
+    <row r="531" spans="1:39">
       <c r="A531" t="s">
         <v>1202</v>
       </c>
@@ -42255,7 +42259,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="532" spans="1:39" hidden="1">
+    <row r="532" spans="1:39">
       <c r="A532" t="s">
         <v>631</v>
       </c>
@@ -42327,7 +42331,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="533" spans="1:39" hidden="1">
+    <row r="533" spans="1:39">
       <c r="A533" t="s">
         <v>729</v>
       </c>
@@ -42399,7 +42403,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="534" spans="1:39" hidden="1">
+    <row r="534" spans="1:39">
       <c r="A534" t="s">
         <v>286</v>
       </c>
@@ -42471,7 +42475,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="535" spans="1:39" hidden="1">
+    <row r="535" spans="1:39">
       <c r="A535" t="s">
         <v>278</v>
       </c>
@@ -42537,7 +42541,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="536" spans="1:39" hidden="1">
+    <row r="536" spans="1:39">
       <c r="A536" t="s">
         <v>239</v>
       </c>
@@ -42609,7 +42613,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="537" spans="1:39" hidden="1">
+    <row r="537" spans="1:39">
       <c r="A537" t="s">
         <v>895</v>
       </c>
@@ -42681,7 +42685,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="538" spans="1:39" hidden="1">
+    <row r="538" spans="1:39">
       <c r="A538" t="s">
         <v>122</v>
       </c>
@@ -42753,7 +42757,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="539" spans="1:39" hidden="1">
+    <row r="539" spans="1:39">
       <c r="A539" t="s">
         <v>317</v>
       </c>
@@ -42825,7 +42829,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="540" spans="1:39" hidden="1">
+    <row r="540" spans="1:39">
       <c r="A540" t="s">
         <v>531</v>
       </c>
@@ -42897,7 +42901,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="541" spans="1:39" hidden="1">
+    <row r="541" spans="1:39">
       <c r="A541" t="s">
         <v>115</v>
       </c>
@@ -42969,7 +42973,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="542" spans="1:39" hidden="1">
+    <row r="542" spans="1:39">
       <c r="A542" t="s">
         <v>400</v>
       </c>
@@ -43041,7 +43045,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="543" spans="1:39" hidden="1">
+    <row r="543" spans="1:39">
       <c r="A543" t="s">
         <v>168</v>
       </c>
@@ -43107,7 +43111,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="544" spans="1:39" hidden="1">
+    <row r="544" spans="1:39">
       <c r="A544" t="s">
         <v>212</v>
       </c>
@@ -43173,7 +43177,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="545" spans="1:39" hidden="1">
+    <row r="545" spans="1:39">
       <c r="A545" t="s">
         <v>864</v>
       </c>
@@ -43239,7 +43243,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="546" spans="1:39" hidden="1">
+    <row r="546" spans="1:39">
       <c r="A546" t="s">
         <v>491</v>
       </c>
@@ -43308,7 +43312,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="547" spans="1:39" hidden="1">
+    <row r="547" spans="1:39">
       <c r="A547" t="s">
         <v>1105</v>
       </c>
@@ -43380,7 +43384,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="548" spans="1:39" hidden="1">
+    <row r="548" spans="1:39">
       <c r="A548" t="s">
         <v>1192</v>
       </c>
@@ -43452,7 +43456,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="549" spans="1:39" hidden="1">
+    <row r="549" spans="1:39">
       <c r="A549" t="s">
         <v>1020</v>
       </c>
@@ -43524,7 +43528,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="550" spans="1:39" hidden="1">
+    <row r="550" spans="1:39">
       <c r="A550" t="s">
         <v>367</v>
       </c>
@@ -43596,7 +43600,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="551" spans="1:39" hidden="1">
+    <row r="551" spans="1:39">
       <c r="A551" t="s">
         <v>629</v>
       </c>
@@ -43668,7 +43672,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="552" spans="1:39" hidden="1">
+    <row r="552" spans="1:39">
       <c r="A552" t="s">
         <v>68</v>
       </c>
@@ -43734,7 +43738,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="553" spans="1:39" hidden="1">
+    <row r="553" spans="1:39">
       <c r="A553" t="s">
         <v>168</v>
       </c>
@@ -43806,7 +43810,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="554" spans="1:39" hidden="1">
+    <row r="554" spans="1:39">
       <c r="A554" t="s">
         <v>115</v>
       </c>
@@ -43878,7 +43882,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="555" spans="1:39" hidden="1">
+    <row r="555" spans="1:39">
       <c r="A555" t="s">
         <v>210</v>
       </c>
@@ -43950,7 +43954,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="556" spans="1:39" hidden="1">
+    <row r="556" spans="1:39">
       <c r="A556" t="s">
         <v>317</v>
       </c>
@@ -44022,7 +44026,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="557" spans="1:39" hidden="1">
+    <row r="557" spans="1:39">
       <c r="A557" t="s">
         <v>116</v>
       </c>
@@ -44094,7 +44098,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="558" spans="1:39" hidden="1">
+    <row r="558" spans="1:39">
       <c r="A558" t="s">
         <v>1209</v>
       </c>
@@ -44160,7 +44164,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="559" spans="1:39" hidden="1">
+    <row r="559" spans="1:39">
       <c r="A559" t="s">
         <v>115</v>
       </c>
@@ -44232,7 +44236,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="560" spans="1:39" hidden="1">
+    <row r="560" spans="1:39">
       <c r="A560" t="s">
         <v>360</v>
       </c>
@@ -44304,7 +44308,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="561" spans="1:39" hidden="1">
+    <row r="561" spans="1:39">
       <c r="A561" t="s">
         <v>1027</v>
       </c>
@@ -44370,7 +44374,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="562" spans="1:39" hidden="1">
+    <row r="562" spans="1:39">
       <c r="A562" t="s">
         <v>357</v>
       </c>
@@ -44436,7 +44440,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="563" spans="1:39" hidden="1">
+    <row r="563" spans="1:39">
       <c r="A563" t="s">
         <v>1184</v>
       </c>
@@ -44508,7 +44512,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="564" spans="1:39" hidden="1">
+    <row r="564" spans="1:39">
       <c r="A564" t="s">
         <v>238</v>
       </c>
@@ -44580,7 +44584,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="565" spans="1:39" hidden="1">
+    <row r="565" spans="1:39">
       <c r="A565" t="s">
         <v>638</v>
       </c>
@@ -44646,7 +44650,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="566" spans="1:39" hidden="1">
+    <row r="566" spans="1:39">
       <c r="A566" t="s">
         <v>707</v>
       </c>
@@ -44718,7 +44722,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="567" spans="1:39" hidden="1">
+    <row r="567" spans="1:39">
       <c r="A567" t="s">
         <v>1157</v>
       </c>
@@ -44790,7 +44794,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="568" spans="1:39" hidden="1">
+    <row r="568" spans="1:39">
       <c r="A568" t="s">
         <v>494</v>
       </c>
@@ -44862,7 +44866,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="569" spans="1:39" hidden="1">
+    <row r="569" spans="1:39">
       <c r="A569" t="s">
         <v>251</v>
       </c>
@@ -44928,7 +44932,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="570" spans="1:39" hidden="1">
+    <row r="570" spans="1:39">
       <c r="A570" t="s">
         <v>480</v>
       </c>
@@ -44994,7 +44998,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="571" spans="1:39" hidden="1">
+    <row r="571" spans="1:39">
       <c r="A571" t="s">
         <v>182</v>
       </c>
@@ -45060,7 +45064,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="572" spans="1:39" hidden="1">
+    <row r="572" spans="1:39">
       <c r="A572" t="s">
         <v>434</v>
       </c>
@@ -45126,7 +45130,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="573" spans="1:39" hidden="1">
+    <row r="573" spans="1:39">
       <c r="A573" t="s">
         <v>238</v>
       </c>
@@ -45192,7 +45196,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="574" spans="1:39" hidden="1">
+    <row r="574" spans="1:39">
       <c r="A574" t="s">
         <v>860</v>
       </c>
@@ -45264,7 +45268,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="575" spans="1:39" hidden="1">
+    <row r="575" spans="1:39">
       <c r="A575" t="s">
         <v>562</v>
       </c>
@@ -45336,7 +45340,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="576" spans="1:39" hidden="1">
+    <row r="576" spans="1:39">
       <c r="A576" t="s">
         <v>534</v>
       </c>
@@ -45402,7 +45406,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="577" spans="1:39" hidden="1">
+    <row r="577" spans="1:39">
       <c r="A577" t="s">
         <v>191</v>
       </c>
@@ -45474,7 +45478,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="578" spans="1:39" hidden="1">
+    <row r="578" spans="1:39">
       <c r="A578" t="s">
         <v>974</v>
       </c>
@@ -45530,7 +45534,7 @@
         <v>975</v>
       </c>
       <c r="T578" t="str">
-        <f t="shared" ref="T578:T641" si="9">LEFT(S578,1) &amp; TEXT(--RIGHT(S578,LEN(S578)-1),"0000")</f>
+        <f t="shared" ref="T578:T617" si="9">LEFT(S578,1) &amp; TEXT(--RIGHT(S578,LEN(S578)-1),"0000")</f>
         <v>A0578</v>
       </c>
       <c r="U578" t="s">
@@ -45546,7 +45550,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="579" spans="1:39" hidden="1">
+    <row r="579" spans="1:39">
       <c r="A579" t="s">
         <v>189</v>
       </c>
@@ -45612,7 +45616,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="580" spans="1:39" hidden="1">
+    <row r="580" spans="1:39">
       <c r="A580" t="s">
         <v>777</v>
       </c>
@@ -45684,7 +45688,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="581" spans="1:39" hidden="1">
+    <row r="581" spans="1:39">
       <c r="A581" t="s">
         <v>357</v>
       </c>
@@ -45756,7 +45760,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="582" spans="1:39" hidden="1">
+    <row r="582" spans="1:39">
       <c r="A582" t="s">
         <v>828</v>
       </c>
@@ -45828,7 +45832,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="583" spans="1:39" hidden="1">
+    <row r="583" spans="1:39">
       <c r="A583" t="s">
         <v>115</v>
       </c>
@@ -45972,7 +45976,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="585" spans="1:39" hidden="1">
+    <row r="585" spans="1:39">
       <c r="A585" t="s">
         <v>591</v>
       </c>
@@ -46044,7 +46048,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="586" spans="1:39" hidden="1">
+    <row r="586" spans="1:39">
       <c r="A586" t="s">
         <v>744</v>
       </c>
@@ -46116,7 +46120,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="587" spans="1:39" hidden="1">
+    <row r="587" spans="1:39">
       <c r="A587" t="s">
         <v>602</v>
       </c>
@@ -46182,7 +46186,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="588" spans="1:39" hidden="1">
+    <row r="588" spans="1:39">
       <c r="A588" t="s">
         <v>616</v>
       </c>
@@ -46248,7 +46252,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="589" spans="1:39" hidden="1">
+    <row r="589" spans="1:39">
       <c r="A589" t="s">
         <v>1317</v>
       </c>
@@ -46314,7 +46318,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="590" spans="1:39" hidden="1">
+    <row r="590" spans="1:39">
       <c r="A590" t="s">
         <v>1319</v>
       </c>
@@ -46380,7 +46384,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="591" spans="1:39" hidden="1">
+    <row r="591" spans="1:39">
       <c r="A591" t="s">
         <v>1322</v>
       </c>
@@ -46446,7 +46450,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="592" spans="1:39" hidden="1">
+    <row r="592" spans="1:39">
       <c r="A592" t="s">
         <v>439</v>
       </c>
@@ -46512,7 +46516,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="593" spans="1:39" hidden="1">
+    <row r="593" spans="1:39">
       <c r="A593" t="s">
         <v>616</v>
       </c>
@@ -46578,7 +46582,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="594" spans="1:39" hidden="1">
+    <row r="594" spans="1:39">
       <c r="A594" t="s">
         <v>1329</v>
       </c>
@@ -46644,7 +46648,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="595" spans="1:39" hidden="1">
+    <row r="595" spans="1:39">
       <c r="A595" t="s">
         <v>1331</v>
       </c>
@@ -46710,7 +46714,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="596" spans="1:39" hidden="1">
+    <row r="596" spans="1:39">
       <c r="A596" t="s">
         <v>1334</v>
       </c>
@@ -46782,7 +46786,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="597" spans="1:39" hidden="1">
+    <row r="597" spans="1:39">
       <c r="A597" t="s">
         <v>1256</v>
       </c>
@@ -46848,7 +46852,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="598" spans="1:39" hidden="1">
+    <row r="598" spans="1:39">
       <c r="A598" t="s">
         <v>403</v>
       </c>
@@ -46914,7 +46918,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="599" spans="1:39" hidden="1">
+    <row r="599" spans="1:39">
       <c r="A599" t="s">
         <v>1338</v>
       </c>
@@ -46986,7 +46990,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="600" spans="1:39" hidden="1">
+    <row r="600" spans="1:39">
       <c r="A600" t="s">
         <v>616</v>
       </c>
@@ -47052,7 +47056,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="601" spans="1:39" hidden="1">
+    <row r="601" spans="1:39">
       <c r="A601" t="s">
         <v>1036</v>
       </c>
@@ -47118,7 +47122,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="602" spans="1:39" hidden="1">
+    <row r="602" spans="1:39">
       <c r="A602" t="s">
         <v>230</v>
       </c>
@@ -47190,7 +47194,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="603" spans="1:39" hidden="1">
+    <row r="603" spans="1:39">
       <c r="A603" t="s">
         <v>1345</v>
       </c>
@@ -47256,7 +47260,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="604" spans="1:39" hidden="1">
+    <row r="604" spans="1:39">
       <c r="A604" t="s">
         <v>492</v>
       </c>
@@ -47322,7 +47326,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="605" spans="1:39" hidden="1">
+    <row r="605" spans="1:39">
       <c r="A605" t="s">
         <v>1348</v>
       </c>
@@ -47388,7 +47392,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="606" spans="1:39" hidden="1">
+    <row r="606" spans="1:39">
       <c r="A606" t="s">
         <v>1350</v>
       </c>
@@ -47454,7 +47458,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="607" spans="1:39" hidden="1">
+    <row r="607" spans="1:39">
       <c r="A607" t="s">
         <v>895</v>
       </c>
@@ -47520,7 +47524,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="608" spans="1:39" hidden="1">
+    <row r="608" spans="1:39">
       <c r="A608" t="s">
         <v>88</v>
       </c>
@@ -47592,7 +47596,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="609" spans="1:39" hidden="1">
+    <row r="609" spans="1:39">
       <c r="A609" t="s">
         <v>1231</v>
       </c>
@@ -47664,7 +47668,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="610" spans="1:39" hidden="1">
+    <row r="610" spans="1:39">
       <c r="A610" t="s">
         <v>413</v>
       </c>
@@ -47733,7 +47737,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="611" spans="1:39" hidden="1">
+    <row r="611" spans="1:39">
       <c r="A611" t="s">
         <v>412</v>
       </c>
@@ -47805,7 +47809,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="612" spans="1:39" hidden="1">
+    <row r="612" spans="1:39">
       <c r="A612" t="s">
         <v>182</v>
       </c>
@@ -47877,7 +47881,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="613" spans="1:39" hidden="1">
+    <row r="613" spans="1:39">
       <c r="A613" t="s">
         <v>76</v>
       </c>
@@ -47946,7 +47950,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="614" spans="1:39" hidden="1">
+    <row r="614" spans="1:39">
       <c r="A614" t="s">
         <v>84</v>
       </c>
@@ -48018,7 +48022,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="615" spans="1:39" hidden="1">
+    <row r="615" spans="1:39">
       <c r="A615" t="s">
         <v>1038</v>
       </c>
@@ -48090,7 +48094,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="616" spans="1:39" hidden="1">
+    <row r="616" spans="1:39">
       <c r="A616" t="s">
         <v>458</v>
       </c>
@@ -48162,7 +48166,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="617" spans="1:39" hidden="1">
+    <row r="617" spans="1:39">
       <c r="A617" t="s">
         <v>1246</v>
       </c>
@@ -48236,11 +48240,7 @@
     </row>
   </sheetData>
   <autoFilter ref="G1:G617">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="dismiss"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
   </autoFilter>
   <sortState ref="A2:AM617">
     <sortCondition ref="T1"/>
